--- a/data/trans_dic/P36$cafe-Edad-trans_dic.xlsx
+++ b/data/trans_dic/P36$cafe-Edad-trans_dic.xlsx
@@ -675,31 +675,31 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>0.8566400583890266</v>
+        <v>0.8556253142667043</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>0.7982987528132226</v>
+        <v>0.7963884512427641</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>0.8084462595902031</v>
+        <v>0.8099198928899836</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>0.8075371639675802</v>
+        <v>0.8055974216993468</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>0.8205310342825469</v>
+        <v>0.818125958304929</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>0.8235201046343822</v>
+        <v>0.8225089957434307</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>0.844543015623057</v>
+        <v>0.8433785557020402</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>0.8182258345118472</v>
+        <v>0.8194598615435715</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>0.8265882884139429</v>
+        <v>0.8259378900028683</v>
       </c>
     </row>
     <row r="6">
@@ -710,31 +710,31 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>0.9126718091926841</v>
+        <v>0.9119589114847115</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>0.8692854802046209</v>
+        <v>0.8677139613536994</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>0.8845748571903892</v>
+        <v>0.8852326066931923</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>0.8738205010197054</v>
+        <v>0.8740938056635522</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>0.8867068500440269</v>
+        <v>0.8882563102611124</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>0.8914319548298643</v>
+        <v>0.8892018082820476</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>0.8858727687269353</v>
+        <v>0.8852550364527327</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>0.8679055708441014</v>
+        <v>0.8690030138885232</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>0.8753139122385377</v>
+        <v>0.8761731191508022</v>
       </c>
     </row>
     <row r="7">
@@ -784,31 +784,31 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.8660279954025976</v>
+        <v>0.8663329704400426</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.8481035291793405</v>
+        <v>0.8475849687214821</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.8409958245527593</v>
+        <v>0.8408118009557426</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>0.8601647614460688</v>
+        <v>0.8588031341432163</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>0.8836710796260473</v>
+        <v>0.8849234975427751</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>0.8840029902256543</v>
+        <v>0.8861570003555898</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>0.8703002849646344</v>
+        <v>0.8718792301807526</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>0.8750973979841764</v>
+        <v>0.8726571171514611</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>0.8715832377273596</v>
+        <v>0.871795778152806</v>
       </c>
     </row>
     <row r="9">
@@ -819,31 +819,31 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.9135515093627546</v>
+        <v>0.9138285886886874</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.9022562154404326</v>
+        <v>0.9017195304790914</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.8979399631809083</v>
+        <v>0.8961973467394718</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>0.9107399718083902</v>
+        <v>0.9102424981582723</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>0.9328444549454836</v>
+        <v>0.9326406217380214</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>0.9312389805640207</v>
+        <v>0.9312361447632719</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>0.9059848267662233</v>
+        <v>0.9065685923826635</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>0.9107643655955273</v>
+        <v>0.910594770560163</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>0.9070089551877853</v>
+        <v>0.9063014556496282</v>
       </c>
     </row>
     <row r="10">
@@ -893,31 +893,31 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.9033117967344426</v>
+        <v>0.9024605451610627</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.901444838461308</v>
+        <v>0.9039565893642465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.8951967786299206</v>
+        <v>0.8977911326131207</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>0.9066274221911785</v>
+        <v>0.9072676607373675</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>0.9321284020226638</v>
+        <v>0.9319963431130467</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>0.913493343746545</v>
+        <v>0.9121207490774558</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>0.9096752691736625</v>
+        <v>0.9113681631343243</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>0.9232108244628023</v>
+        <v>0.9234998119051092</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>0.909857820936763</v>
+        <v>0.9131808610766411</v>
       </c>
     </row>
     <row r="12">
@@ -928,31 +928,31 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.9440562065839587</v>
+        <v>0.94382231214326</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.9448561499147068</v>
+        <v>0.9460345822398424</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.940908077130202</v>
+        <v>0.9408165848259125</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>0.9467377735346699</v>
+        <v>0.947845889425772</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>0.9658973886212409</v>
+        <v>0.9650859090612783</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>0.9497073430565577</v>
+        <v>0.9495519448749435</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>0.9396961144309938</v>
+        <v>0.9407663676955494</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>0.9501671761236797</v>
+        <v>0.9496556646038259</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>0.9407077709370538</v>
+        <v>0.9401127605977637</v>
       </c>
     </row>
     <row r="13">
@@ -1002,31 +1002,31 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0.8986059997789678</v>
+        <v>0.8962879177795086</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.9206857058802722</v>
+        <v>0.9209140482772508</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.893018983075878</v>
+        <v>0.8896198893260804</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>0.8994256789475695</v>
+        <v>0.9001324250450229</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>0.9376918446363248</v>
+        <v>0.9397931067810531</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>0.929303561609848</v>
+        <v>0.9293180430120399</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>0.9074231058689379</v>
+        <v>0.9073241883670027</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>0.9382514208140524</v>
+        <v>0.9386028086955474</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>0.9181882539531724</v>
+        <v>0.9172871703805945</v>
       </c>
     </row>
     <row r="15">
@@ -1037,31 +1037,31 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.9477450495993023</v>
+        <v>0.9469486015231154</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.9598267088999834</v>
+        <v>0.9618850466324886</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.9383683449327652</v>
+        <v>0.9382723024165832</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>0.9476266444511189</v>
+        <v>0.9469403450315101</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>0.9732343033494396</v>
+        <v>0.975149705013348</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>0.9628752278834956</v>
+        <v>0.9651081093091225</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>0.9414502809678319</v>
+        <v>0.9406160939464314</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>0.9632309454306124</v>
+        <v>0.9642748831851472</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>0.9477527750046463</v>
+        <v>0.9460394483170358</v>
       </c>
     </row>
     <row r="16">
@@ -1111,31 +1111,31 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>0.8974796680984436</v>
+        <v>0.8955611518362577</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.9156111469524393</v>
+        <v>0.9155538305403285</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.8939891628029873</v>
+        <v>0.8933930253505459</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.9037530859444549</v>
+        <v>0.9028849283590407</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9262687383368187</v>
+        <v>0.9268180843729725</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.9368516009141672</v>
+        <v>0.9391406845148766</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>0.9086455379689834</v>
+        <v>0.9097969262958258</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>0.9312649377869233</v>
+        <v>0.9310229287259845</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>0.9232608271367437</v>
+        <v>0.9247777317683614</v>
       </c>
     </row>
     <row r="18">
@@ -1146,31 +1146,31 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.9520162200268557</v>
+        <v>0.9477184467917148</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.966458071676408</v>
+        <v>0.9652345529475701</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.9464806476104096</v>
+        <v>0.946976344014725</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.9545140288662902</v>
+        <v>0.9548483236256865</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9693893724965084</v>
+        <v>0.9713250852671896</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.9775058149567469</v>
+        <v>0.9758812164930283</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>0.9467799089812038</v>
+        <v>0.9452155313906152</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>0.9632752699199192</v>
+        <v>0.9626524821009231</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>0.9567444816050876</v>
+        <v>0.9575154152958973</v>
       </c>
     </row>
     <row r="19">
@@ -1220,31 +1220,31 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.9227956704758635</v>
+        <v>0.9197350139988236</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.9236259903177987</v>
+        <v>0.9228931309870455</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.9188328767619065</v>
+        <v>0.9184074958470654</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.919331987132226</v>
+        <v>0.9218563853573298</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9327417521957573</v>
+        <v>0.9347178986753684</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.9318448502419667</v>
+        <v>0.9306713459435635</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>0.930723005209721</v>
+        <v>0.9316485808127837</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>0.9375081402190936</v>
+        <v>0.9365599823167715</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>0.934533925383041</v>
+        <v>0.9319827285946974</v>
       </c>
     </row>
     <row r="21">
@@ -1255,31 +1255,31 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.9716386104965075</v>
+        <v>0.9703010651628832</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>0.9722385706794342</v>
+        <v>0.9743637425181986</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.9649233469790083</v>
+        <v>0.9676212943210175</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>0.968908063501784</v>
+        <v>0.9667033473497337</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9752046332157709</v>
+        <v>0.9750839285215162</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>0.9731830287663956</v>
+        <v>0.9735863452915111</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>0.9641448217767943</v>
+        <v>0.9650510166460035</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>0.968987304705384</v>
+        <v>0.9690205702025371</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>0.9647753619331026</v>
+        <v>0.9645889596573264</v>
       </c>
     </row>
     <row r="22">
@@ -1329,31 +1329,31 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>0.8890981126081543</v>
+        <v>0.8923735673087683</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.9219901513010609</v>
+        <v>0.9249856354924348</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.9291007173886027</v>
+        <v>0.9278613636376469</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>0.9491686797804437</v>
+        <v>0.9481468960137245</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>0.9367974702379938</v>
+        <v>0.934748155232342</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>0.95807773306681</v>
+        <v>0.9628313130346395</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>0.9355434356564256</v>
+        <v>0.9347738615584249</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>0.9423904185226907</v>
+        <v>0.93960534383512</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>0.9574048302864784</v>
+        <v>0.9555069786693724</v>
       </c>
     </row>
     <row r="24">
@@ -1364,31 +1364,31 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.9628601524875926</v>
+        <v>0.9590915966033681</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.9822931982559416</v>
+        <v>0.9826438671560658</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.9768104381705384</v>
+        <v>0.9757474070796315</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>0.9868580746310799</v>
+        <v>0.9868884183355054</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>0.9781765767000136</v>
+        <v>0.9768213266722804</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>0.9937366242676219</v>
+        <v>0.9939546434146611</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>0.9737631172762178</v>
+        <v>0.9716895770382599</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>0.9739606520752406</v>
+        <v>0.9738201300744317</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>0.9835680680698546</v>
+        <v>0.9829523624937682</v>
       </c>
     </row>
     <row r="25">
@@ -1438,31 +1438,31 @@
         </is>
       </c>
       <c r="C26" s="5" t="n">
-        <v>0.9039400913492965</v>
+        <v>0.9033925975262224</v>
       </c>
       <c r="D26" s="5" t="n">
-        <v>0.9044222287737879</v>
+        <v>0.9045215588019232</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.8976277382147596</v>
+        <v>0.8984589672292487</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>0.9046145895018702</v>
+        <v>0.9059617807581557</v>
       </c>
       <c r="G26" s="5" t="n">
-        <v>0.9271944255088562</v>
+        <v>0.9275545634939759</v>
       </c>
       <c r="H26" s="5" t="n">
-        <v>0.9276290266736132</v>
+        <v>0.9279401441177335</v>
       </c>
       <c r="I26" s="5" t="n">
-        <v>0.9084150822093423</v>
+        <v>0.9080046180415099</v>
       </c>
       <c r="J26" s="5" t="n">
-        <v>0.9188687916277012</v>
+        <v>0.9191568721277816</v>
       </c>
       <c r="K26" s="5" t="n">
-        <v>0.9160951757556688</v>
+        <v>0.9154607076337025</v>
       </c>
     </row>
     <row r="27">
@@ -1473,31 +1473,31 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.9245835825988737</v>
+        <v>0.9238257157456615</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.9252198365347576</v>
+        <v>0.9247059851844552</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.9182133866987469</v>
+        <v>0.9182315443319365</v>
       </c>
       <c r="F27" s="5" t="n">
-        <v>0.924538944448177</v>
+        <v>0.9243807307982638</v>
       </c>
       <c r="G27" s="5" t="n">
-        <v>0.9440249173374693</v>
+        <v>0.9440980710549827</v>
       </c>
       <c r="H27" s="5" t="n">
-        <v>0.9436981978256981</v>
+        <v>0.9445295538277882</v>
       </c>
       <c r="I27" s="5" t="n">
-        <v>0.9215827439978926</v>
+        <v>0.9225547367798649</v>
       </c>
       <c r="J27" s="5" t="n">
-        <v>0.9319636649940612</v>
+        <v>0.9317445527314611</v>
       </c>
       <c r="K27" s="5" t="n">
-        <v>0.9290448020441365</v>
+        <v>0.9289164912622976</v>
       </c>
     </row>
     <row r="28">
@@ -1729,31 +1729,31 @@
         </is>
       </c>
       <c r="C6" s="6" t="n">
-        <v>422465</v>
+        <v>421964</v>
       </c>
       <c r="D6" s="6" t="n">
-        <v>362544</v>
+        <v>361677</v>
       </c>
       <c r="E6" s="6" t="n">
-        <v>339113</v>
+        <v>339731</v>
       </c>
       <c r="F6" s="6" t="n">
-        <v>377515</v>
+        <v>376608</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>351383</v>
+        <v>350353</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>325133</v>
+        <v>324734</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>811314</v>
+        <v>810196</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>721990</v>
+        <v>723079</v>
       </c>
       <c r="K6" s="6" t="n">
-        <v>673068</v>
+        <v>672538</v>
       </c>
     </row>
     <row r="7">
@@ -1764,31 +1764,31 @@
         </is>
       </c>
       <c r="C7" s="6" t="n">
-        <v>450098</v>
+        <v>449746</v>
       </c>
       <c r="D7" s="6" t="n">
-        <v>394783</v>
+        <v>394069</v>
       </c>
       <c r="E7" s="6" t="n">
-        <v>371046</v>
+        <v>371322</v>
       </c>
       <c r="F7" s="6" t="n">
-        <v>408501</v>
+        <v>408629</v>
       </c>
       <c r="G7" s="6" t="n">
-        <v>379722</v>
+        <v>380385</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>351945</v>
+        <v>351065</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>851018</v>
+        <v>850425</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>765827</v>
+        <v>766795</v>
       </c>
       <c r="K7" s="6" t="n">
-        <v>712744</v>
+        <v>713443</v>
       </c>
     </row>
     <row r="8">
@@ -1873,31 +1873,31 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>636954</v>
+        <v>637178</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>581926</v>
+        <v>581570</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>496605</v>
+        <v>496496</v>
       </c>
       <c r="F10" s="6" t="n">
-        <v>536246</v>
+        <v>535397</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>538240</v>
+        <v>539002</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>498175</v>
+        <v>499388</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>1182660</v>
+        <v>1184805</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>1133466</v>
+        <v>1130305</v>
       </c>
       <c r="K10" s="6" t="n">
-        <v>1005842</v>
+        <v>1006087</v>
       </c>
     </row>
     <row r="11">
@@ -1908,31 +1908,31 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>671907</v>
+        <v>672111</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>619083</v>
+        <v>618715</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>530230</v>
+        <v>529201</v>
       </c>
       <c r="F11" s="6" t="n">
-        <v>567775</v>
+        <v>567465</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>568191</v>
+        <v>568067</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>524794</v>
+        <v>524793</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>1231152</v>
+        <v>1231945</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>1179663</v>
+        <v>1179443</v>
       </c>
       <c r="K11" s="6" t="n">
-        <v>1046725</v>
+        <v>1045908</v>
       </c>
     </row>
     <row r="12">
@@ -2017,31 +2017,31 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>573395</v>
+        <v>572855</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>612101</v>
+        <v>613806</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>598973</v>
+        <v>600709</v>
       </c>
       <c r="F14" s="6" t="n">
-        <v>625341</v>
+        <v>625782</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>660798</v>
+        <v>660704</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>604172</v>
+        <v>603264</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>1204879</v>
+        <v>1207121</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>1281357</v>
+        <v>1281758</v>
       </c>
       <c r="K14" s="6" t="n">
-        <v>1210550</v>
+        <v>1214972</v>
       </c>
     </row>
     <row r="15">
@@ -2052,31 +2052,31 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>599259</v>
+        <v>599110</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>641578</v>
+        <v>642378</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>629559</v>
+        <v>629498</v>
       </c>
       <c r="F15" s="6" t="n">
-        <v>653007</v>
+        <v>653771</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>684737</v>
+        <v>684162</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>628123</v>
+        <v>628020</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>1244642</v>
+        <v>1246059</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>1318770</v>
+        <v>1318060</v>
       </c>
       <c r="K15" s="6" t="n">
-        <v>1251596</v>
+        <v>1250804</v>
       </c>
     </row>
     <row r="16">
@@ -2161,31 +2161,31 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>464773</v>
+        <v>463574</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>564911</v>
+        <v>565051</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>574981</v>
+        <v>572792</v>
       </c>
       <c r="F18" s="6" t="n">
-        <v>462027</v>
+        <v>462390</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>577805</v>
+        <v>579100</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>602156</v>
+        <v>602166</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>935468</v>
+        <v>935366</v>
       </c>
       <c r="J18" s="6" t="n">
-        <v>1153838</v>
+        <v>1154270</v>
       </c>
       <c r="K18" s="6" t="n">
-        <v>1186140</v>
+        <v>1184976</v>
       </c>
     </row>
     <row r="19">
@@ -2196,31 +2196,31 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>490189</v>
+        <v>489777</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>588927</v>
+        <v>590190</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>604180</v>
+        <v>604118</v>
       </c>
       <c r="F19" s="6" t="n">
-        <v>486787</v>
+        <v>486435</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>599706</v>
+        <v>600886</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>623909</v>
+        <v>625356</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>970547</v>
+        <v>969687</v>
       </c>
       <c r="J19" s="6" t="n">
-        <v>1184557</v>
+        <v>1185841</v>
       </c>
       <c r="K19" s="6" t="n">
-        <v>1224333</v>
+        <v>1222119</v>
       </c>
     </row>
     <row r="20">
@@ -2305,31 +2305,31 @@
         </is>
       </c>
       <c r="C22" s="6" t="n">
-        <v>347064</v>
+        <v>346322</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>393190</v>
+        <v>393165</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>427254</v>
+        <v>426969</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>365104</v>
+        <v>364753</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>413824</v>
+        <v>414070</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>465474</v>
+        <v>466611</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>718462</v>
+        <v>719373</v>
       </c>
       <c r="J22" s="6" t="n">
-        <v>815970</v>
+        <v>815758</v>
       </c>
       <c r="K22" s="6" t="n">
-        <v>899964</v>
+        <v>901443</v>
       </c>
     </row>
     <row r="23">
@@ -2340,31 +2340,31 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>368154</v>
+        <v>366492</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>415025</v>
+        <v>414500</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>452340</v>
+        <v>452577</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>385610</v>
+        <v>385745</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>433089</v>
+        <v>433954</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>485673</v>
+        <v>484866</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>748615</v>
+        <v>747378</v>
       </c>
       <c r="J23" s="6" t="n">
-        <v>844017</v>
+        <v>843471</v>
       </c>
       <c r="K23" s="6" t="n">
-        <v>932603</v>
+        <v>933354</v>
       </c>
     </row>
     <row r="24">
@@ -2449,31 +2449,31 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>269994</v>
+        <v>269099</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>286126</v>
+        <v>285899</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>307193</v>
+        <v>307051</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>315270</v>
+        <v>316136</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>330187</v>
+        <v>330886</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>352016</v>
+        <v>351572</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>591490</v>
+        <v>592079</v>
       </c>
       <c r="J26" s="6" t="n">
-        <v>622301</v>
+        <v>621672</v>
       </c>
       <c r="K26" s="6" t="n">
-        <v>665474</v>
+        <v>663657</v>
       </c>
     </row>
     <row r="27">
@@ -2484,31 +2484,31 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>284285</v>
+        <v>283894</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>301186</v>
+        <v>301844</v>
       </c>
       <c r="E27" s="6" t="n">
-        <v>322603</v>
+        <v>323505</v>
       </c>
       <c r="F27" s="6" t="n">
-        <v>332272</v>
+        <v>331515</v>
       </c>
       <c r="G27" s="6" t="n">
-        <v>345219</v>
+        <v>345176</v>
       </c>
       <c r="H27" s="6" t="n">
-        <v>367632</v>
+        <v>367784</v>
       </c>
       <c r="I27" s="6" t="n">
-        <v>612730</v>
+        <v>613306</v>
       </c>
       <c r="J27" s="6" t="n">
-        <v>643196</v>
+        <v>643218</v>
       </c>
       <c r="K27" s="6" t="n">
-        <v>687009</v>
+        <v>686876</v>
       </c>
     </row>
     <row r="28">
@@ -2593,31 +2593,31 @@
         </is>
       </c>
       <c r="C30" s="6" t="n">
-        <v>186607</v>
+        <v>187294</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>229361</v>
+        <v>230106</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>237119</v>
+        <v>236802</v>
       </c>
       <c r="F30" s="6" t="n">
-        <v>316935</v>
+        <v>316594</v>
       </c>
       <c r="G30" s="6" t="n">
-        <v>364395</v>
+        <v>363597</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>382249</v>
+        <v>384146</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>508740</v>
+        <v>508322</v>
       </c>
       <c r="J30" s="6" t="n">
-        <v>601006</v>
+        <v>599230</v>
       </c>
       <c r="K30" s="6" t="n">
-        <v>626324</v>
+        <v>625082</v>
       </c>
     </row>
     <row r="31">
@@ -2628,31 +2628,31 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>202088</v>
+        <v>201297</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>244362</v>
+        <v>244449</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>249295</v>
+        <v>249023</v>
       </c>
       <c r="F31" s="6" t="n">
-        <v>329520</v>
+        <v>329530</v>
       </c>
       <c r="G31" s="6" t="n">
-        <v>380490</v>
+        <v>379963</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>396476</v>
+        <v>396563</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>529524</v>
+        <v>528396</v>
       </c>
       <c r="J31" s="6" t="n">
-        <v>621140</v>
+        <v>621050</v>
       </c>
       <c r="K31" s="6" t="n">
-        <v>643439</v>
+        <v>643037</v>
       </c>
     </row>
     <row r="32">
@@ -2737,31 +2737,31 @@
         </is>
       </c>
       <c r="C34" s="6" t="n">
-        <v>2955718</v>
+        <v>2953928</v>
       </c>
       <c r="D34" s="6" t="n">
-        <v>3093917</v>
+        <v>3094257</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>3043299</v>
+        <v>3046117</v>
       </c>
       <c r="F34" s="6" t="n">
-        <v>3053232</v>
+        <v>3057779</v>
       </c>
       <c r="G34" s="6" t="n">
-        <v>3293566</v>
+        <v>3294845</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>3285003</v>
+        <v>3286105</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>6036409</v>
+        <v>6033682</v>
       </c>
       <c r="J34" s="6" t="n">
-        <v>6407329</v>
+        <v>6409338</v>
       </c>
       <c r="K34" s="6" t="n">
-        <v>6350069</v>
+        <v>6345672</v>
       </c>
     </row>
     <row r="35">
@@ -2772,31 +2772,31 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>3023218</v>
+        <v>3020740</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3165063</v>
+        <v>3163305</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>3113092</v>
+        <v>3113154</v>
       </c>
       <c r="F35" s="6" t="n">
-        <v>3120480</v>
+        <v>3119946</v>
       </c>
       <c r="G35" s="6" t="n">
-        <v>3353351</v>
+        <v>3353611</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>3341909</v>
+        <v>3344853</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>6123908</v>
+        <v>6130367</v>
       </c>
       <c r="J35" s="6" t="n">
-        <v>6498640</v>
+        <v>6497113</v>
       </c>
       <c r="K35" s="6" t="n">
-        <v>6439832</v>
+        <v>6438943</v>
       </c>
     </row>
     <row r="36">
